--- a/Mathematical Model/Scarcity Model/parameters_w_50/beta/nonEmpty_diff_a_alpha3_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/beta/nonEmpty_diff_a_alpha3_firstrun.xlsx
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6122448979591837</v>
+        <v>0.46875</v>
       </c>
       <c r="C3">
-        <v>0.509090909090909</v>
+        <v>0.5055679287305123</v>
       </c>
       <c r="D3">
-        <v>0.5311203319502075</v>
+        <v>0.5069124423963134</v>
       </c>
       <c r="E3">
-        <v>0.5077262693156733</v>
+        <v>0.5108225108225108</v>
       </c>
       <c r="F3">
-        <v>0.5060728744939271</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="G3">
-        <v>0.5031446540880503</v>
+        <v>0.4979338842975207</v>
       </c>
       <c r="H3">
-        <v>0.494</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.578125</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="C4">
-        <v>0.4988864142538976</v>
+        <v>0.5235955056179775</v>
       </c>
       <c r="D4">
-        <v>0.4605263157894737</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="E4">
-        <v>0.4926253687315634</v>
+        <v>0.510548523206751</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.4503816793893129</v>
       </c>
       <c r="G4">
-        <v>0.5028818443804035</v>
+        <v>0.5081521739130435</v>
       </c>
       <c r="H4">
-        <v>0.494</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4615384615384616</v>
+        <v>0.49</v>
       </c>
       <c r="C5">
-        <v>0.4918032786885246</v>
+        <v>0.5446985446985447</v>
       </c>
       <c r="D5">
-        <v>0.487603305785124</v>
+        <v>0.4017094017094017</v>
       </c>
       <c r="E5">
-        <v>0.5045513654096229</v>
+        <v>0.5045161290322581</v>
       </c>
       <c r="F5">
-        <v>0.5132743362831859</v>
+        <v>0.4065934065934066</v>
       </c>
       <c r="G5">
-        <v>0.5057034220532319</v>
+        <v>0.4993865030674847</v>
       </c>
       <c r="H5">
-        <v>0.474</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5333333333333333</v>
+        <v>0.4655172413793103</v>
       </c>
       <c r="C6">
-        <v>0.5254237288135594</v>
+        <v>0.5189393939393939</v>
       </c>
       <c r="D6">
-        <v>0.55</v>
+        <v>0.4021739130434783</v>
       </c>
       <c r="E6">
-        <v>0.4981226533166458</v>
+        <v>0.5142503097893433</v>
       </c>
       <c r="F6">
-        <v>0.4747474747474748</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="G6">
-        <v>0.5012254901960784</v>
+        <v>0.5</v>
       </c>
       <c r="H6">
-        <v>0.472</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4526315789473684</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C7">
-        <v>0.5160142348754448</v>
+        <v>0.5310834813499112</v>
       </c>
       <c r="D7">
-        <v>0.4302325581395349</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="E7">
-        <v>0.5068493150684932</v>
+        <v>0.5139732685297691</v>
       </c>
       <c r="F7">
-        <v>0.4444444444444444</v>
+        <v>0.425</v>
       </c>
       <c r="G7">
-        <v>0.5073710073710074</v>
+        <v>0.4970131421744325</v>
       </c>
       <c r="H7">
-        <v>0.468</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4742268041237113</v>
+        <v>0.5175438596491229</v>
       </c>
       <c r="C8">
-        <v>0.5274542429284526</v>
+        <v>0.5170731707317073</v>
       </c>
       <c r="D8">
-        <v>0.4454545454545454</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E8">
-        <v>0.5199004975124378</v>
+        <v>0.5207317073170732</v>
       </c>
       <c r="F8">
-        <v>0.3608247422680412</v>
+        <v>0.3908045977011494</v>
       </c>
       <c r="G8">
-        <v>0.5086206896551724</v>
+        <v>0.4993954050785974</v>
       </c>
       <c r="H8">
-        <v>0.47</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4722222222222222</v>
+        <v>0.5566037735849056</v>
       </c>
       <c r="C9">
-        <v>0.5299539170506913</v>
+        <v>0.5186289120715351</v>
       </c>
       <c r="D9">
-        <v>0.4537037037037037</v>
+        <v>0.5408163265306123</v>
       </c>
       <c r="E9">
-        <v>0.5126903553299492</v>
+        <v>0.5152998776009792</v>
       </c>
       <c r="F9">
-        <v>0.303030303030303</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="G9">
-        <v>0.5043478260869565</v>
+        <v>0.4957472660996355</v>
       </c>
       <c r="H9">
-        <v>0.47</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4424778761061947</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="C10">
-        <v>0.5352517985611511</v>
+        <v>0.5152354570637119</v>
       </c>
       <c r="D10">
-        <v>0.43</v>
+        <v>0.4731182795698925</v>
       </c>
       <c r="E10">
-        <v>0.513715710723192</v>
+        <v>0.5105067985166872</v>
       </c>
       <c r="F10">
-        <v>0.4148936170212766</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="G10">
-        <v>0.5067484662576687</v>
+        <v>0.4981458590852905</v>
       </c>
       <c r="H10">
-        <v>0.456</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4909090909090909</v>
+        <v>0.5145631067961165</v>
       </c>
       <c r="C11">
-        <v>0.543978349120433</v>
+        <v>0.5127226463104325</v>
       </c>
       <c r="D11">
-        <v>0.4090909090909091</v>
+        <v>0.4579439252336449</v>
       </c>
       <c r="E11">
-        <v>0.5117719950433705</v>
+        <v>0.5280199252801993</v>
       </c>
       <c r="F11">
-        <v>0.4588235294117647</v>
+        <v>0.4945054945054945</v>
       </c>
       <c r="G11">
-        <v>0.4975550122249389</v>
+        <v>0.4993865030674847</v>
       </c>
       <c r="H11">
-        <v>0.45</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4909090909090909</v>
+        <v>0.4752475247524752</v>
       </c>
       <c r="C12">
-        <v>0.5303797468354431</v>
+        <v>0.5220588235294118</v>
       </c>
       <c r="D12">
-        <v>0.43</v>
+        <v>0.5092592592592593</v>
       </c>
       <c r="E12">
-        <v>0.5104808877928483</v>
+        <v>0.5373891001267427</v>
       </c>
       <c r="F12">
-        <v>0.4239130434782609</v>
+        <v>0.3369565217391304</v>
       </c>
       <c r="G12">
-        <v>0.4933008526187576</v>
+        <v>0.495049504950495</v>
       </c>
       <c r="H12">
-        <v>0.438</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5</v>
+        <v>0.4895833333333333</v>
       </c>
       <c r="C13">
-        <v>0.5332541567695962</v>
+        <v>0.5303030303030303</v>
       </c>
       <c r="D13">
-        <v>0.5145631067961165</v>
+        <v>0.4247787610619469</v>
       </c>
       <c r="E13">
-        <v>0.5093399750933998</v>
+        <v>0.5332480818414322</v>
       </c>
       <c r="F13">
-        <v>0.4827586206896552</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="G13">
-        <v>0.4901719901719901</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="H13">
-        <v>0.448</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.4700854700854701</v>
       </c>
       <c r="C14">
-        <v>0.5253664036076663</v>
+        <v>0.520174482006543</v>
       </c>
       <c r="D14">
-        <v>0.4411764705882353</v>
+        <v>0.4070796460176991</v>
       </c>
       <c r="E14">
-        <v>0.5043804755944932</v>
+        <v>0.5355329949238579</v>
       </c>
       <c r="F14">
-        <v>0.4347826086956522</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="G14">
-        <v>0.4847001223990208</v>
+        <v>0.5018495684340321</v>
       </c>
       <c r="H14">
-        <v>0.434</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4818181818181818</v>
+        <v>0.5175438596491229</v>
       </c>
       <c r="C15">
-        <v>0.529039070749736</v>
+        <v>0.5222457627118644</v>
       </c>
       <c r="D15">
-        <v>0.5625</v>
+        <v>0.46875</v>
       </c>
       <c r="E15">
-        <v>0.5129469790382244</v>
+        <v>0.5283732660781841</v>
       </c>
       <c r="F15">
-        <v>0.45</v>
+        <v>0.4536082474226804</v>
       </c>
       <c r="G15">
-        <v>0.4812121212121212</v>
+        <v>0.5006195786864932</v>
       </c>
       <c r="H15">
-        <v>0.444</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4747474747474748</v>
+        <v>0.4951456310679612</v>
       </c>
       <c r="C16">
-        <v>0.5325977933801405</v>
+        <v>0.516</v>
       </c>
       <c r="D16">
-        <v>0.4352941176470588</v>
+        <v>0.5046728971962616</v>
       </c>
       <c r="E16">
-        <v>0.5098039215686274</v>
+        <v>0.5291201982651796</v>
       </c>
       <c r="F16">
-        <v>0.4367816091954023</v>
+        <v>0.4752475247524752</v>
       </c>
       <c r="G16">
-        <v>0.4798534798534799</v>
+        <v>0.5006165228113441</v>
       </c>
       <c r="H16">
-        <v>0.448</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4719101123595505</v>
+        <v>0.5181818181818182</v>
       </c>
       <c r="C17">
-        <v>0.532516493873704</v>
+        <v>0.5191768007483629</v>
       </c>
       <c r="D17">
-        <v>0.4315789473684211</v>
+        <v>0.4948453608247423</v>
       </c>
       <c r="E17">
-        <v>0.5055079559363526</v>
+        <v>0.5272277227722773</v>
       </c>
       <c r="F17">
-        <v>0.4545454545454545</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="G17">
-        <v>0.4805352798053528</v>
+        <v>0.4987775061124695</v>
       </c>
       <c r="H17">
-        <v>0.44</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4747474747474748</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C18">
-        <v>0.5295169946332737</v>
+        <v>0.5180180180180181</v>
       </c>
       <c r="D18">
-        <v>0.4509803921568628</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="E18">
-        <v>0.5061881188118812</v>
+        <v>0.5324357405140759</v>
       </c>
       <c r="F18">
-        <v>0.5728155339805825</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="G18">
-        <v>0.4678217821782178</v>
+        <v>0.5060679611650486</v>
       </c>
       <c r="H18">
-        <v>0.444</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4285714285714285</v>
+        <v>0.4660194174757282</v>
       </c>
       <c r="C19">
-        <v>0.5308747855917667</v>
+        <v>0.5232358003442341</v>
       </c>
       <c r="D19">
-        <v>0.4607843137254902</v>
+        <v>0.4851485148514851</v>
       </c>
       <c r="E19">
-        <v>0.5055624227441285</v>
+        <v>0.530940594059406</v>
       </c>
       <c r="F19">
-        <v>0.5092592592592593</v>
+        <v>0.3956043956043956</v>
       </c>
       <c r="G19">
-        <v>0.462962962962963</v>
+        <v>0.5036319612590799</v>
       </c>
       <c r="H19">
-        <v>0.444</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4712643678160919</v>
+        <v>0.5309734513274337</v>
       </c>
       <c r="C20">
-        <v>0.5344827586206896</v>
+        <v>0.5193415637860083</v>
       </c>
       <c r="D20">
-        <v>0.4943820224719101</v>
+        <v>0.4946236559139785</v>
       </c>
       <c r="E20">
-        <v>0.5055487053020962</v>
+        <v>0.5343320848938826</v>
       </c>
       <c r="F20">
-        <v>0.4883720930232558</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="G20">
-        <v>0.4808877928483354</v>
+        <v>0.4975429975429975</v>
       </c>
       <c r="H20">
-        <v>0.432</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5288461538461539</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="C21">
-        <v>0.528196981731533</v>
+        <v>0.5103174603174603</v>
       </c>
       <c r="D21">
-        <v>0.4489795918367347</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="E21">
-        <v>0.5037220843672456</v>
+        <v>0.5301353013530136</v>
       </c>
       <c r="F21">
-        <v>0.5161290322580645</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="G21">
-        <v>0.4822085889570552</v>
+        <v>0.4908869987849332</v>
       </c>
       <c r="H21">
-        <v>0.43</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="C22">
-        <v>0.525</v>
+        <v>0.5153139356814701</v>
       </c>
       <c r="D22">
-        <v>0.4807692307692308</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="E22">
-        <v>0.5082592121982211</v>
+        <v>0.5327564894932015</v>
       </c>
       <c r="F22">
-        <v>0.4722222222222222</v>
+        <v>0.3908045977011494</v>
       </c>
       <c r="G22">
-        <v>0.4824120603015075</v>
+        <v>0.4956736711990111</v>
       </c>
       <c r="H22">
-        <v>0.424</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5247524752475248</v>
+        <v>0.5148514851485149</v>
       </c>
       <c r="C23">
-        <v>0.5275707898658718</v>
+        <v>0.5168374816983895</v>
       </c>
       <c r="D23">
-        <v>0.4910714285714285</v>
+        <v>0.4485981308411215</v>
       </c>
       <c r="E23">
-        <v>0.5075</v>
+        <v>0.5378048780487805</v>
       </c>
       <c r="F23">
-        <v>0.4727272727272727</v>
+        <v>0.5204081632653061</v>
       </c>
       <c r="G23">
-        <v>0.485</v>
+        <v>0.4951456310679612</v>
       </c>
       <c r="H23">
-        <v>0.42</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5391304347826087</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="C24">
-        <v>0.5257510729613734</v>
+        <v>0.5138004246284501</v>
       </c>
       <c r="D24">
-        <v>0.4536082474226804</v>
+        <v>0.4375</v>
       </c>
       <c r="E24">
-        <v>0.5018495684340321</v>
+        <v>0.5411471321695761</v>
       </c>
       <c r="F24">
-        <v>0.4505494505494506</v>
+        <v>0.4891304347826087</v>
       </c>
       <c r="G24">
-        <v>0.4871481028151775</v>
+        <v>0.4847001223990208</v>
       </c>
       <c r="H24">
-        <v>0.408</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5041322314049587</v>
+        <v>0.5</v>
       </c>
       <c r="C25">
-        <v>0.5253296321998612</v>
+        <v>0.5157967032967034</v>
       </c>
       <c r="D25">
-        <v>0.3977272727272727</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="E25">
-        <v>0.5012106537530266</v>
+        <v>0.5363408521303258</v>
       </c>
       <c r="F25">
-        <v>0.4487179487179487</v>
+        <v>0.4554455445544555</v>
       </c>
       <c r="G25">
-        <v>0.4832535885167464</v>
+        <v>0.4894671623296158</v>
       </c>
       <c r="H25">
-        <v>0.41</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.4485981308411215</v>
+        <v>0.52</v>
       </c>
       <c r="C26">
-        <v>0.5290933694181326</v>
+        <v>0.5196013289036545</v>
       </c>
       <c r="D26">
-        <v>0.4204545454545455</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="E26">
-        <v>0.5030450669914738</v>
+        <v>0.5388535031847134</v>
       </c>
       <c r="F26">
-        <v>0.4691358024691358</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="G26">
-        <v>0.4875148632580262</v>
+        <v>0.4925187032418953</v>
       </c>
       <c r="H26">
-        <v>0.42</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,22 +1076,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.5148514851485149</v>
+        <v>0.5047619047619047</v>
       </c>
       <c r="C27">
-        <v>0.5284237726098191</v>
+        <v>0.5164198325820991</v>
       </c>
       <c r="D27">
-        <v>0.4509803921568628</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E27">
-        <v>0.501840490797546</v>
+        <v>0.5368956743002544</v>
       </c>
       <c r="F27">
-        <v>0.4505494505494506</v>
+        <v>0.504950495049505</v>
       </c>
       <c r="G27">
-        <v>0.4867469879518072</v>
+        <v>0.4875621890547264</v>
       </c>
       <c r="H27">
         <v>0.42</v>
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.5051546391752577</v>
+        <v>0.5391304347826087</v>
       </c>
       <c r="C28">
-        <v>0.524375</v>
+        <v>0.5159474671669794</v>
       </c>
       <c r="D28">
-        <v>0.5268817204301075</v>
+        <v>0.4174757281553398</v>
       </c>
       <c r="E28">
-        <v>0.4919254658385093</v>
+        <v>0.5278121137206427</v>
       </c>
       <c r="F28">
-        <v>0.3953488372093023</v>
+        <v>0.5729166666666666</v>
       </c>
       <c r="G28">
-        <v>0.4945188794153471</v>
+        <v>0.4802955665024631</v>
       </c>
       <c r="H28">
-        <v>0.43</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,22 +1128,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.46875</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C29">
-        <v>0.5245305875227135</v>
+        <v>0.5161683953630263</v>
       </c>
       <c r="D29">
-        <v>0.46875</v>
+        <v>0.4895833333333333</v>
       </c>
       <c r="E29">
-        <v>0.491358024691358</v>
+        <v>0.5291201982651796</v>
       </c>
       <c r="F29">
-        <v>0.475609756097561</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="G29">
-        <v>0.4957472660996355</v>
+        <v>0.4749082007343941</v>
       </c>
       <c r="H29">
         <v>0.428</v>
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.4891304347826087</v>
+        <v>0.5047619047619047</v>
       </c>
       <c r="C30">
-        <v>0.5250147145379636</v>
+        <v>0.5189125295508275</v>
       </c>
       <c r="D30">
-        <v>0.4752475247524752</v>
+        <v>0.4021739130434783</v>
       </c>
       <c r="E30">
-        <v>0.4895191122071517</v>
+        <v>0.5304347826086957</v>
       </c>
       <c r="F30">
-        <v>0.4337349397590362</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G30">
-        <v>0.4921592279855247</v>
+        <v>0.4815724815724816</v>
       </c>
       <c r="H30">
-        <v>0.428</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.57</v>
+        <v>0.514018691588785</v>
       </c>
       <c r="C31">
-        <v>0.5225585379782981</v>
+        <v>0.5197934595524957</v>
       </c>
       <c r="D31">
-        <v>0.4554455445544555</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E31">
-        <v>0.4832298136645963</v>
+        <v>0.5371287128712872</v>
       </c>
       <c r="F31">
-        <v>0.5402298850574713</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="G31">
-        <v>0.4872727272727272</v>
+        <v>0.491421568627451</v>
       </c>
       <c r="H31">
-        <v>0.438</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.5135135135135135</v>
+        <v>0.5350877192982456</v>
       </c>
       <c r="C32">
-        <v>0.5186837702175126</v>
+        <v>0.5164712451144612</v>
       </c>
       <c r="D32">
-        <v>0.5052631578947369</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="E32">
-        <v>0.4863523573200992</v>
+        <v>0.5329192546583851</v>
       </c>
       <c r="F32">
-        <v>0.5368421052631579</v>
+        <v>0.40625</v>
       </c>
       <c r="G32">
-        <v>0.4811664641555286</v>
+        <v>0.4920049200492005</v>
       </c>
       <c r="H32">
-        <v>0.442</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.4862385321100918</v>
+        <v>0.5126050420168067</v>
       </c>
       <c r="C33">
-        <v>0.5239912758996729</v>
+        <v>0.5142700329308453</v>
       </c>
       <c r="D33">
-        <v>0.4065934065934066</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="E33">
-        <v>0.4798041615667075</v>
+        <v>0.5286783042394015</v>
       </c>
       <c r="F33">
-        <v>0.4891304347826087</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="G33">
-        <v>0.4951219512195122</v>
+        <v>0.4894671623296158</v>
       </c>
       <c r="H33">
-        <v>0.432</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.4576271186440678</v>
+        <v>0.5041322314049587</v>
       </c>
       <c r="C34">
-        <v>0.5247890295358649</v>
+        <v>0.515005359056806</v>
       </c>
       <c r="D34">
-        <v>0.3936170212765958</v>
+        <v>0.4913793103448276</v>
       </c>
       <c r="E34">
-        <v>0.4909529553679132</v>
+        <v>0.519350811485643</v>
       </c>
       <c r="F34">
-        <v>0.5</v>
+        <v>0.4299065420560748</v>
       </c>
       <c r="G34">
-        <v>0.5018050541516246</v>
+        <v>0.4827160493827161</v>
       </c>
       <c r="H34">
-        <v>0.42</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.45</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C35">
-        <v>0.5270758122743683</v>
+        <v>0.513302034428795</v>
       </c>
       <c r="D35">
-        <v>0.3506493506493507</v>
+        <v>0.5233644859813084</v>
       </c>
       <c r="E35">
-        <v>0.4873035066505441</v>
+        <v>0.5257214554579673</v>
       </c>
       <c r="F35">
-        <v>0.4534883720930232</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="G35">
-        <v>0.5066344993968637</v>
+        <v>0.488257107540173</v>
       </c>
       <c r="H35">
-        <v>0.416</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.492063492063492</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C36">
-        <v>0.5269793242561776</v>
+        <v>0.5162932790224033</v>
       </c>
       <c r="D36">
-        <v>0.358974358974359</v>
+        <v>0.5955056179775281</v>
       </c>
       <c r="E36">
-        <v>0.4891826923076923</v>
+        <v>0.515</v>
       </c>
       <c r="F36">
-        <v>0.4252873563218391</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="G36">
-        <v>0.5078787878787879</v>
+        <v>0.4781021897810219</v>
       </c>
       <c r="H36">
-        <v>0.416</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.4476190476190476</v>
+        <v>0.4854368932038835</v>
       </c>
       <c r="C37">
-        <v>0.5222993062438057</v>
+        <v>0.5224691358024691</v>
       </c>
       <c r="D37">
-        <v>0.4320987654320987</v>
+        <v>0.44</v>
       </c>
       <c r="E37">
-        <v>0.4890243902439024</v>
+        <v>0.5117139334155364</v>
       </c>
       <c r="F37">
-        <v>0.4329896907216495</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="G37">
-        <v>0.50920245398773</v>
+        <v>0.4896719319562576</v>
       </c>
       <c r="H37">
-        <v>0.416</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.4326923076923077</v>
+        <v>0.5086206896551724</v>
       </c>
       <c r="C38">
-        <v>0.5241511238641798</v>
+        <v>0.5230024213075061</v>
       </c>
       <c r="D38">
-        <v>0.4845360824742268</v>
+        <v>0.4020618556701031</v>
       </c>
       <c r="E38">
-        <v>0.4805352798053528</v>
+        <v>0.519350811485643</v>
       </c>
       <c r="F38">
-        <v>0.4271844660194175</v>
+        <v>0.47</v>
       </c>
       <c r="G38">
-        <v>0.5098522167487685</v>
+        <v>0.4919653893695921</v>
       </c>
       <c r="H38">
-        <v>0.412</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.51</v>
+        <v>0.4636363636363636</v>
       </c>
       <c r="C39">
-        <v>0.5224089635854342</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D39">
-        <v>0.4891304347826087</v>
+        <v>0.4375</v>
       </c>
       <c r="E39">
-        <v>0.4834761321909425</v>
+        <v>0.5164141414141414</v>
       </c>
       <c r="F39">
-        <v>0.4</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="G39">
-        <v>0.5141104294478528</v>
+        <v>0.49</v>
       </c>
       <c r="H39">
-        <v>0.396</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.5247524752475248</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C40">
-        <v>0.5172570390554042</v>
+        <v>0.5204841713221602</v>
       </c>
       <c r="D40">
-        <v>0.5348837209302325</v>
+        <v>0.4913793103448276</v>
       </c>
       <c r="E40">
-        <v>0.4837153196622437</v>
+        <v>0.5133757961783439</v>
       </c>
       <c r="F40">
-        <v>0.3820224719101123</v>
+        <v>0.4636363636363636</v>
       </c>
       <c r="G40">
-        <v>0.5143198090692124</v>
+        <v>0.49125</v>
       </c>
       <c r="H40">
-        <v>0.402</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.5428571428571428</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="C41">
-        <v>0.5168888888888888</v>
+        <v>0.516613563950842</v>
       </c>
       <c r="D41">
-        <v>0.4886363636363636</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="E41">
-        <v>0.4856115107913669</v>
+        <v>0.5063775510204082</v>
       </c>
       <c r="F41">
-        <v>0.3809523809523809</v>
+        <v>0.4536082474226804</v>
       </c>
       <c r="G41">
-        <v>0.5149700598802395</v>
+        <v>0.4918851435705368</v>
       </c>
       <c r="H41">
-        <v>0.416</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.504950495049505</v>
+        <v>0.5747126436781609</v>
       </c>
       <c r="C42">
-        <v>0.5133362483602973</v>
+        <v>0.5168589174800355</v>
       </c>
       <c r="D42">
-        <v>0.5</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="E42">
-        <v>0.4950859950859951</v>
+        <v>0.5118306351183064</v>
       </c>
       <c r="F42">
-        <v>0.3736263736263736</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="G42">
-        <v>0.5072992700729927</v>
+        <v>0.4889705882352941</v>
       </c>
       <c r="H42">
-        <v>0.438</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.49</v>
+        <v>0.5728155339805825</v>
       </c>
       <c r="C43">
-        <v>0.5160051216389244</v>
+        <v>0.5167814113597247</v>
       </c>
       <c r="D43">
-        <v>0.4946236559139785</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="E43">
-        <v>0.4944649446494465</v>
+        <v>0.5098522167487685</v>
       </c>
       <c r="F43">
-        <v>0.3789473684210526</v>
+        <v>0.4456521739130435</v>
       </c>
       <c r="G43">
-        <v>0.5012285012285013</v>
+        <v>0.4902439024390244</v>
       </c>
       <c r="H43">
-        <v>0.43</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.4782608695652174</v>
+        <v>0.53125</v>
       </c>
       <c r="C44">
-        <v>0.5167926112510496</v>
+        <v>0.5142613878246062</v>
       </c>
       <c r="D44">
-        <v>0.4175824175824176</v>
+        <v>0.4352941176470588</v>
       </c>
       <c r="E44">
-        <v>0.5049627791563276</v>
+        <v>0.508578431372549</v>
       </c>
       <c r="F44">
-        <v>0.4065934065934066</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="G44">
-        <v>0.4919254658385093</v>
+        <v>0.4866504854368932</v>
       </c>
       <c r="H44">
-        <v>0.444</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.4336283185840708</v>
+        <v>0.5274725274725275</v>
       </c>
       <c r="C45">
-        <v>0.5191188694929343</v>
+        <v>0.5162771285475793</v>
       </c>
       <c r="D45">
-        <v>0.4339622641509434</v>
+        <v>0.4563106796116505</v>
       </c>
       <c r="E45">
-        <v>0.5137844611528822</v>
+        <v>0.5061425061425061</v>
       </c>
       <c r="F45">
-        <v>0.44</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="G45">
-        <v>0.4906367041198502</v>
+        <v>0.4895191122071517</v>
       </c>
       <c r="H45">
-        <v>0.444</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.4693877551020408</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="C46">
-        <v>0.5196399345335515</v>
+        <v>0.516366612111293</v>
       </c>
       <c r="D46">
-        <v>0.4476190476190476</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="E46">
-        <v>0.5127551020408163</v>
+        <v>0.5037688442211056</v>
       </c>
       <c r="F46">
-        <v>0.3888888888888889</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="G46">
-        <v>0.4773299748110831</v>
+        <v>0.4975429975429975</v>
       </c>
       <c r="H46">
-        <v>0.442</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.5258620689655172</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C47">
-        <v>0.515344758868075</v>
+        <v>0.5202729827378563</v>
       </c>
       <c r="D47">
-        <v>0.4803921568627451</v>
+        <v>0.5104166666666666</v>
       </c>
       <c r="E47">
-        <v>0.5012531328320802</v>
+        <v>0.499383477188656</v>
       </c>
       <c r="F47">
-        <v>0.4299065420560748</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="G47">
-        <v>0.4856070087609512</v>
+        <v>0.5</v>
       </c>
       <c r="H47">
-        <v>0.438</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.5298507462686567</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C48">
-        <v>0.5083003952569169</v>
+        <v>0.5192761605035405</v>
       </c>
       <c r="D48">
-        <v>0.5368421052631579</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="E48">
-        <v>0.5037037037037037</v>
+        <v>0.4854014598540146</v>
       </c>
       <c r="F48">
-        <v>0.46875</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="G48">
-        <v>0.4740740740740741</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="H48">
-        <v>0.448</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.5476190476190477</v>
+        <v>0.5688073394495413</v>
       </c>
       <c r="C49">
-        <v>0.5074451410658307</v>
+        <v>0.5177526336324619</v>
       </c>
       <c r="D49">
-        <v>0.5416666666666666</v>
+        <v>0.4204545454545455</v>
       </c>
       <c r="E49">
-        <v>0.5018633540372671</v>
+        <v>0.4857849196538937</v>
       </c>
       <c r="F49">
-        <v>0.4536082474226804</v>
+        <v>0.5443037974683544</v>
       </c>
       <c r="G49">
-        <v>0.4753086419753086</v>
+        <v>0.4993909866017052</v>
       </c>
       <c r="H49">
-        <v>0.452</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.5098039215686274</v>
+        <v>0.5752212389380531</v>
       </c>
       <c r="C50">
-        <v>0.5090141925584963</v>
+        <v>0.514637904468413</v>
       </c>
       <c r="D50">
-        <v>0.4747474747474748</v>
+        <v>0.4036697247706422</v>
       </c>
       <c r="E50">
-        <v>0.506832298136646</v>
+        <v>0.4930817610062893</v>
       </c>
       <c r="F50">
-        <v>0.4897959183673469</v>
+        <v>0.4795918367346939</v>
       </c>
       <c r="G50">
-        <v>0.4827160493827161</v>
+        <v>0.495049504950495</v>
       </c>
       <c r="H50">
-        <v>0.438</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.4653465346534654</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C51">
-        <v>0.5112443778110944</v>
+        <v>0.5146948003014318</v>
       </c>
       <c r="D51">
-        <v>0.4042553191489361</v>
+        <v>0.495049504950495</v>
       </c>
       <c r="E51">
-        <v>0.5137844611528822</v>
+        <v>0.4962686567164179</v>
       </c>
       <c r="F51">
-        <v>0.4725274725274725</v>
+        <v>0.4183673469387755</v>
       </c>
       <c r="G51">
-        <v>0.4796547472256473</v>
+        <v>0.5060827250608273</v>
       </c>
       <c r="H51">
-        <v>0.442</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.5154639175257731</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="C52">
-        <v>0.512905604719764</v>
+        <v>0.5157000369412634</v>
       </c>
       <c r="D52">
-        <v>0.4220183486238532</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="E52">
-        <v>0.5156445556946183</v>
+        <v>0.4932680538555692</v>
       </c>
       <c r="F52">
-        <v>0.4352941176470588</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G52">
-        <v>0.4895448954489545</v>
+        <v>0.5096618357487923</v>
       </c>
       <c r="H52">
-        <v>0.422</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.4313725490196079</v>
+        <v>0.5436893203883495</v>
       </c>
       <c r="C53">
-        <v>0.5123099203475743</v>
+        <v>0.5150199058993847</v>
       </c>
       <c r="D53">
-        <v>0.4646464646464646</v>
+        <v>0.4479166666666667</v>
       </c>
       <c r="E53">
-        <v>0.5107458912768648</v>
+        <v>0.4933171324422843</v>
       </c>
       <c r="F53">
-        <v>0.4534883720930232</v>
+        <v>0.3932584269662922</v>
       </c>
       <c r="G53">
-        <v>0.4914425427872861</v>
+        <v>0.4957780458383595</v>
       </c>
       <c r="H53">
-        <v>0.428</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.4787234042553192</v>
+        <v>0.4351851851851852</v>
       </c>
       <c r="C54">
-        <v>0.5160256410256411</v>
+        <v>0.5144797997854844</v>
       </c>
       <c r="D54">
-        <v>0.4301075268817204</v>
+        <v>0.5</v>
       </c>
       <c r="E54">
-        <v>0.5037220843672456</v>
+        <v>0.4938118811881188</v>
       </c>
       <c r="F54">
-        <v>0.4606741573033708</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="G54">
-        <v>0.4939320388349515</v>
+        <v>0.4951219512195122</v>
       </c>
       <c r="H54">
-        <v>0.428</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.4827586206896552</v>
+        <v>0.4579439252336449</v>
       </c>
       <c r="C55">
-        <v>0.5144548937652386</v>
+        <v>0.5190409026798307</v>
       </c>
       <c r="D55">
-        <v>0.4395604395604396</v>
+        <v>0.4851485148514851</v>
       </c>
       <c r="E55">
-        <v>0.5006075334143378</v>
+        <v>0.4907521578298397</v>
       </c>
       <c r="F55">
-        <v>0.4772727272727273</v>
+        <v>0.4653465346534654</v>
       </c>
       <c r="G55">
-        <v>0.4951923076923077</v>
+        <v>0.4926289926289926</v>
       </c>
       <c r="H55">
-        <v>0.432</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.4482758620689655</v>
+        <v>0.4757281553398058</v>
       </c>
       <c r="C56">
-        <v>0.5143737166324436</v>
+        <v>0.5197779319916724</v>
       </c>
       <c r="D56">
-        <v>0.4269662921348314</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="E56">
-        <v>0.496947496947497</v>
+        <v>0.4949874686716792</v>
       </c>
       <c r="F56">
-        <v>0.451219512195122</v>
+        <v>0.4752475247524752</v>
       </c>
       <c r="G56">
-        <v>0.4896969696969697</v>
+        <v>0.4900744416873449</v>
       </c>
       <c r="H56">
-        <v>0.436</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.51</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="C57">
-        <v>0.5156618390030313</v>
+        <v>0.5210884353741496</v>
       </c>
       <c r="D57">
-        <v>0.4333333333333333</v>
+        <v>0.4247787610619469</v>
       </c>
       <c r="E57">
-        <v>0.4981458590852905</v>
+        <v>0.4912935323383085</v>
       </c>
       <c r="F57">
-        <v>0.4468085106382979</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="G57">
-        <v>0.5061124694376528</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="H57">
-        <v>0.418</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.5045045045045045</v>
+        <v>0.5233644859813084</v>
       </c>
       <c r="C58">
-        <v>0.5124958347217594</v>
+        <v>0.5195979899497487</v>
       </c>
       <c r="D58">
-        <v>0.4597701149425287</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="E58">
-        <v>0.4957055214723927</v>
+        <v>0.4956085319949812</v>
       </c>
       <c r="F58">
-        <v>0.46</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="G58">
-        <v>0.504914004914005</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="H58">
-        <v>0.412</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.5</v>
+        <v>0.5046728971962616</v>
       </c>
       <c r="C59">
-        <v>0.5128205128205128</v>
+        <v>0.5203709837694601</v>
       </c>
       <c r="D59">
-        <v>0.5060240963855421</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E59">
-        <v>0.4957575757575757</v>
+        <v>0.5006257822277848</v>
       </c>
       <c r="F59">
-        <v>0.4736842105263158</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="G59">
-        <v>0.5042735042735043</v>
+        <v>0.4870848708487085</v>
       </c>
       <c r="H59">
-        <v>0.418</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.5242718446601942</v>
+        <v>0.5046728971962616</v>
       </c>
       <c r="C60">
-        <v>0.5138620245003224</v>
+        <v>0.5178279358848544</v>
       </c>
       <c r="D60">
-        <v>0.4505494505494506</v>
+        <v>0.4</v>
       </c>
       <c r="E60">
-        <v>0.4958083832335329</v>
+        <v>0.5012658227848101</v>
       </c>
       <c r="F60">
-        <v>0.4235294117647059</v>
+        <v>0.4433962264150944</v>
       </c>
       <c r="G60">
-        <v>0.5060386473429952</v>
+        <v>0.4826302729528536</v>
       </c>
       <c r="H60">
-        <v>0.408</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.5204081632653061</v>
+        <v>0.525</v>
       </c>
       <c r="C61">
-        <v>0.5131370686926242</v>
+        <v>0.5172302737520129</v>
       </c>
       <c r="D61">
-        <v>0.425</v>
+        <v>0.4786324786324787</v>
       </c>
       <c r="E61">
-        <v>0.4951923076923077</v>
+        <v>0.4962121212121212</v>
       </c>
       <c r="F61">
-        <v>0.4302325581395349</v>
+        <v>0.4636363636363636</v>
       </c>
       <c r="G61">
-        <v>0.5</v>
+        <v>0.4793491864831039</v>
       </c>
       <c r="H61">
-        <v>0.412</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.495049504950495</v>
+        <v>0.4793388429752066</v>
       </c>
       <c r="C62">
-        <v>0.5121495327102804</v>
+        <v>0.5168575063613231</v>
       </c>
       <c r="D62">
-        <v>0.4358974358974359</v>
+        <v>0.4845360824742268</v>
       </c>
       <c r="E62">
-        <v>0.4880095923261391</v>
+        <v>0.489873417721519</v>
       </c>
       <c r="F62">
-        <v>0.475</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="G62">
-        <v>0.5</v>
+        <v>0.4775</v>
       </c>
       <c r="H62">
-        <v>0.416</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.4526315789473684</v>
+        <v>0.5196078431372549</v>
       </c>
       <c r="C63">
-        <v>0.5125038592158073</v>
+        <v>0.5181590482154039</v>
       </c>
       <c r="D63">
-        <v>0.4893617021276596</v>
+        <v>0.47</v>
       </c>
       <c r="E63">
-        <v>0.4853658536585366</v>
+        <v>0.4944785276073619</v>
       </c>
       <c r="F63">
-        <v>0.4827586206896552</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="G63">
-        <v>0.4987864077669903</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="H63">
-        <v>0.426</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.4086021505376344</v>
+        <v>0.4684684684684685</v>
       </c>
       <c r="C64">
-        <v>0.5143292682926829</v>
+        <v>0.5151700888752682</v>
       </c>
       <c r="D64">
-        <v>0.4623655913978494</v>
+        <v>0.4712643678160919</v>
       </c>
       <c r="E64">
-        <v>0.4962406015037594</v>
+        <v>0.4981640146878825</v>
       </c>
       <c r="F64">
-        <v>0.4615384615384616</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="G64">
-        <v>0.5104551045510455</v>
+        <v>0.4656019656019656</v>
       </c>
       <c r="H64">
-        <v>0.412</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.4591836734693878</v>
+        <v>0.5327868852459017</v>
       </c>
       <c r="C65">
-        <v>0.5162162162162162</v>
+        <v>0.5182370820668692</v>
       </c>
       <c r="D65">
-        <v>0.3738317757009346</v>
+        <v>0.4597701149425287</v>
       </c>
       <c r="E65">
-        <v>0.4956521739130435</v>
+        <v>0.4987745098039216</v>
       </c>
       <c r="F65">
-        <v>0.3714285714285714</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="G65">
-        <v>0.513681592039801</v>
+        <v>0.4636251541307028</v>
       </c>
       <c r="H65">
-        <v>0.41</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.5096153846153846</v>
+        <v>0.5486725663716814</v>
       </c>
       <c r="C66">
-        <v>0.5151515151515151</v>
+        <v>0.5171790235081374</v>
       </c>
       <c r="D66">
-        <v>0.4215686274509804</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="E66">
-        <v>0.5056603773584906</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="F66">
-        <v>0.3814432989690721</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="G66">
-        <v>0.5148883374689827</v>
+        <v>0.4617283950617284</v>
       </c>
       <c r="H66">
-        <v>0.414</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.4732142857142857</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="C67">
-        <v>0.5126470588235295</v>
+        <v>0.5185625185625186</v>
       </c>
       <c r="D67">
-        <v>0.411214953271028</v>
+        <v>0.3831775700934579</v>
       </c>
       <c r="E67">
-        <v>0.5025252525252525</v>
+        <v>0.5137844611528822</v>
       </c>
       <c r="F67">
-        <v>0.3894736842105263</v>
+        <v>0.4174757281553398</v>
       </c>
       <c r="G67">
-        <v>0.5224438902743143</v>
+        <v>0.4635678391959799</v>
       </c>
       <c r="H67">
-        <v>0.404</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.5098039215686274</v>
+        <v>0.4554455445544555</v>
       </c>
       <c r="C68">
-        <v>0.5132382892057027</v>
+        <v>0.5204081632653061</v>
       </c>
       <c r="D68">
-        <v>0.4661016949152542</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="E68">
-        <v>0.507537688442211</v>
+        <v>0.513681592039801</v>
       </c>
       <c r="F68">
-        <v>0.3181818181818182</v>
+        <v>0.3440860215053764</v>
       </c>
       <c r="G68">
-        <v>0.520935960591133</v>
+        <v>0.4692118226600985</v>
       </c>
       <c r="H68">
-        <v>0.408</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.4857142857142857</v>
+        <v>0.4684684684684685</v>
       </c>
       <c r="C69">
-        <v>0.5131956397016638</v>
+        <v>0.5204929779306392</v>
       </c>
       <c r="D69">
-        <v>0.4387755102040816</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="E69">
-        <v>0.5037974683544304</v>
+        <v>0.5060975609756098</v>
       </c>
       <c r="F69">
-        <v>0.3366336633663367</v>
+        <v>0.36</v>
       </c>
       <c r="G69">
-        <v>0.5243445692883895</v>
+        <v>0.4646706586826347</v>
       </c>
       <c r="H69">
-        <v>0.414</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.4380165289256198</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C70">
-        <v>0.5137510632265382</v>
+        <v>0.5184449489216799</v>
       </c>
       <c r="D70">
-        <v>0.3473684210526316</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="E70">
-        <v>0.5031055900621118</v>
+        <v>0.4933171324422843</v>
       </c>
       <c r="F70">
-        <v>0.3861386138613861</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="G70">
-        <v>0.5180124223602485</v>
+        <v>0.4591715976331361</v>
       </c>
       <c r="H70">
-        <v>0.406</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.4272727272727272</v>
+        <v>0.5462962962962963</v>
       </c>
       <c r="C71">
-        <v>0.5154581225407532</v>
+        <v>0.5150070126227209</v>
       </c>
       <c r="D71">
-        <v>0.425</v>
+        <v>0.5402298850574713</v>
       </c>
       <c r="E71">
-        <v>0.5042944785276073</v>
+        <v>0.489051094890511</v>
       </c>
       <c r="F71">
-        <v>0.4020618556701031</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G71">
-        <v>0.5110565110565111</v>
+        <v>0.4607142857142857</v>
       </c>
       <c r="H71">
-        <v>0.404</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.4953271028037383</v>
+        <v>0.5137614678899083</v>
       </c>
       <c r="C72">
-        <v>0.5166204986149584</v>
+        <v>0.5164137931034483</v>
       </c>
       <c r="D72">
-        <v>0.3870967741935484</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="E72">
-        <v>0.4933655006031363</v>
+        <v>0.491504854368932</v>
       </c>
       <c r="F72">
-        <v>0.4431818181818182</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="G72">
-        <v>0.5054945054945055</v>
+        <v>0.4594272076372315</v>
       </c>
       <c r="H72">
-        <v>0.402</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,22 +2272,22 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.5045045045045045</v>
+        <v>0.4770642201834863</v>
       </c>
       <c r="C73">
-        <v>0.5144729655925724</v>
+        <v>0.5173355173355173</v>
       </c>
       <c r="D73">
-        <v>0.3488372093023256</v>
+        <v>0.4375</v>
       </c>
       <c r="E73">
-        <v>0.4907975460122699</v>
+        <v>0.4919653893695921</v>
       </c>
       <c r="F73">
-        <v>0.4432989690721649</v>
+        <v>0.36</v>
       </c>
       <c r="G73">
-        <v>0.4945321992709599</v>
+        <v>0.4661835748792271</v>
       </c>
       <c r="H73">
         <v>0.404</v>
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.4831460674157304</v>
+        <v>0.4368932038834951</v>
       </c>
       <c r="C74">
-        <v>0.5128552097428958</v>
+        <v>0.5184985147177964</v>
       </c>
       <c r="D74">
-        <v>0.4</v>
+        <v>0.4356435643564356</v>
       </c>
       <c r="E74">
-        <v>0.4864864864864865</v>
+        <v>0.5</v>
       </c>
       <c r="F74">
-        <v>0.5567010309278351</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="G74">
-        <v>0.4993819530284301</v>
+        <v>0.4713064713064713</v>
       </c>
       <c r="H74">
-        <v>0.412</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.5108695652173914</v>
+        <v>0.4774774774774775</v>
       </c>
       <c r="C75">
-        <v>0.513154398086633</v>
+        <v>0.5199150292087095</v>
       </c>
       <c r="D75">
-        <v>0.46</v>
+        <v>0.4587155963302753</v>
       </c>
       <c r="E75">
-        <v>0.4791154791154791</v>
+        <v>0.504950495049505</v>
       </c>
       <c r="F75">
-        <v>0.4818181818181818</v>
+        <v>0.4301075268817204</v>
       </c>
       <c r="G75">
-        <v>0.4906832298136646</v>
+        <v>0.4587378640776699</v>
       </c>
       <c r="H75">
-        <v>0.416</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.5054945054945055</v>
+        <v>0.5</v>
       </c>
       <c r="C76">
-        <v>0.5146750524109015</v>
+        <v>0.51985274783066</v>
       </c>
       <c r="D76">
-        <v>0.4736842105263158</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E76">
-        <v>0.4797546012269939</v>
+        <v>0.5080147965474723</v>
       </c>
       <c r="F76">
-        <v>0.4571428571428571</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="G76">
-        <v>0.4987623762376238</v>
+        <v>0.463855421686747</v>
       </c>
       <c r="H76">
-        <v>0.424</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.5053763440860215</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C77">
-        <v>0.5125550090603158</v>
+        <v>0.5201665365599791</v>
       </c>
       <c r="D77">
-        <v>0.3666666666666666</v>
+        <v>0.33</v>
       </c>
       <c r="E77">
-        <v>0.4817073170731707</v>
+        <v>0.5018270401948843</v>
       </c>
       <c r="F77">
-        <v>0.4318181818181818</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="G77">
-        <v>0.4969325153374233</v>
+        <v>0.4646341463414634</v>
       </c>
       <c r="H77">
-        <v>0.436</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.4456521739130435</v>
+        <v>0.5338983050847458</v>
       </c>
       <c r="C78">
-        <v>0.5117888262429523</v>
+        <v>0.5205761316872428</v>
       </c>
       <c r="D78">
-        <v>0.4891304347826087</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="E78">
-        <v>0.4779951100244499</v>
+        <v>0.5043370508054523</v>
       </c>
       <c r="F78">
-        <v>0.4157303370786517</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G78">
-        <v>0.4945586457073761</v>
+        <v>0.4609756097560976</v>
       </c>
       <c r="H78">
-        <v>0.44</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.404040404040404</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C79">
-        <v>0.5145828049708344</v>
+        <v>0.5168281489036206</v>
       </c>
       <c r="D79">
-        <v>0.4563106796116505</v>
+        <v>0.3882352941176471</v>
       </c>
       <c r="E79">
-        <v>0.4723247232472325</v>
+        <v>0.4993865030674847</v>
       </c>
       <c r="F79">
-        <v>0.4725274725274725</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="G79">
-        <v>0.4878640776699029</v>
+        <v>0.4555420219244823</v>
       </c>
       <c r="H79">
-        <v>0.446</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.4672897196261682</v>
+        <v>0.4958677685950413</v>
       </c>
       <c r="C80">
-        <v>0.5157153633392004</v>
+        <v>0.5190512238203381</v>
       </c>
       <c r="D80">
-        <v>0.4054054054054054</v>
+        <v>0.5</v>
       </c>
       <c r="E80">
-        <v>0.4757160647571607</v>
+        <v>0.4866504854368932</v>
       </c>
       <c r="F80">
-        <v>0.4432989690721649</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="G80">
-        <v>0.48721071863581</v>
+        <v>0.4647713226205192</v>
       </c>
       <c r="H80">
-        <v>0.452</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.5392156862745098</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C81">
-        <v>0.5127245508982036</v>
+        <v>0.5188986232790989</v>
       </c>
       <c r="D81">
-        <v>0.3888888888888889</v>
+        <v>0.4742268041237113</v>
       </c>
       <c r="E81">
-        <v>0.4754716981132076</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="F81">
-        <v>0.4044943820224719</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="G81">
-        <v>0.4969173859432799</v>
+        <v>0.4641089108910891</v>
       </c>
       <c r="H81">
-        <v>0.446</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.5056179775280899</v>
+        <v>0.5339805825242718</v>
       </c>
       <c r="C82">
-        <v>0.5098863074641621</v>
+        <v>0.5176586811558409</v>
       </c>
       <c r="D82">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="E82">
-        <v>0.4778200253485425</v>
+        <v>0.4839901477832512</v>
       </c>
       <c r="F82">
-        <v>0.3846153846153846</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="G82">
-        <v>0.5049382716049383</v>
+        <v>0.456896551724138</v>
       </c>
       <c r="H82">
-        <v>0.432</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.4772727272727273</v>
+        <v>0.4952380952380953</v>
       </c>
       <c r="C83">
-        <v>0.5105134474327628</v>
+        <v>0.5153061224489796</v>
       </c>
       <c r="D83">
-        <v>0.4649122807017544</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="E83">
-        <v>0.4771573604060914</v>
+        <v>0.4781021897810219</v>
       </c>
       <c r="F83">
-        <v>0.4193548387096774</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="G83">
-        <v>0.5156054931335831</v>
+        <v>0.4639423076923077</v>
       </c>
       <c r="H83">
-        <v>0.416</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.5</v>
+        <v>0.5188679245283019</v>
       </c>
       <c r="C84">
-        <v>0.5107461965708766</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="D84">
-        <v>0.4601769911504425</v>
+        <v>0.4875</v>
       </c>
       <c r="E84">
-        <v>0.4752851711026616</v>
+        <v>0.4828850855745721</v>
       </c>
       <c r="F84">
-        <v>0.3939393939393939</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="G84">
-        <v>0.5103785103785103</v>
+        <v>0.4647201946472019</v>
       </c>
       <c r="H84">
-        <v>0.402</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.53125</v>
+        <v>0.4946236559139785</v>
       </c>
       <c r="C85">
-        <v>0.5101698971045705</v>
+        <v>0.5172989739918874</v>
       </c>
       <c r="D85">
-        <v>0.4356435643564356</v>
+        <v>0.4361702127659575</v>
       </c>
       <c r="E85">
-        <v>0.4756554307116105</v>
+        <v>0.4792682926829268</v>
       </c>
       <c r="F85">
-        <v>0.4320987654320987</v>
+        <v>0.4326923076923077</v>
       </c>
       <c r="G85">
-        <v>0.5115712545676004</v>
+        <v>0.4737484737484737</v>
       </c>
       <c r="H85">
-        <v>0.396</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.5377358490566038</v>
+        <v>0.485981308411215</v>
       </c>
       <c r="C86">
-        <v>0.5094562647754137</v>
+        <v>0.5179873030801787</v>
       </c>
       <c r="D86">
-        <v>0.4347826086956522</v>
+        <v>0.3956043956043956</v>
       </c>
       <c r="E86">
-        <v>0.4784217016029593</v>
+        <v>0.4805352798053528</v>
       </c>
       <c r="F86">
-        <v>0.3647058823529412</v>
+        <v>0.5164835164835165</v>
       </c>
       <c r="G86">
-        <v>0.5029940119760479</v>
+        <v>0.4815724815724816</v>
       </c>
       <c r="H86">
-        <v>0.408</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.5526315789473685</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C87">
-        <v>0.5088007509974184</v>
+        <v>0.5184925093632958</v>
       </c>
       <c r="D87">
+        <v>0.3409090909090909</v>
+      </c>
+      <c r="E87">
+        <v>0.4858199753390876</v>
+      </c>
+      <c r="F87">
         <v>0.4945054945054945</v>
       </c>
-      <c r="E87">
-        <v>0.4785801713586291</v>
-      </c>
-      <c r="F87">
-        <v>0.3793103448275862</v>
-      </c>
       <c r="G87">
-        <v>0.50661853188929</v>
+        <v>0.4798041615667075</v>
       </c>
       <c r="H87">
-        <v>0.398</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.5354330708661418</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="C88">
-        <v>0.5104602510460251</v>
+        <v>0.5179356630409627</v>
       </c>
       <c r="D88">
-        <v>0.4807692307692308</v>
+        <v>0.3786407766990291</v>
       </c>
       <c r="E88">
-        <v>0.4768292682926829</v>
+        <v>0.4796044499381953</v>
       </c>
       <c r="F88">
-        <v>0.4157303370786517</v>
+        <v>0.4158415841584158</v>
       </c>
       <c r="G88">
-        <v>0.5018094089264173</v>
+        <v>0.4766584766584767</v>
       </c>
       <c r="H88">
-        <v>0.404</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.5039370078740157</v>
+        <v>0.5130434782608696</v>
       </c>
       <c r="C89">
-        <v>0.5115207373271889</v>
+        <v>0.5163953221738133</v>
       </c>
       <c r="D89">
-        <v>0.3627450980392157</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="E89">
-        <v>0.4797546012269939</v>
+        <v>0.4820322180916977</v>
       </c>
       <c r="F89">
-        <v>0.4069767441860465</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="G89">
-        <v>0.4988009592326139</v>
+        <v>0.4821208384710234</v>
       </c>
       <c r="H89">
-        <v>0.4</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.4854368932038835</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C90">
-        <v>0.5122341641893438</v>
+        <v>0.5152065365410804</v>
       </c>
       <c r="D90">
-        <v>0.3529411764705883</v>
+        <v>0.5</v>
       </c>
       <c r="E90">
-        <v>0.4819427148194271</v>
+        <v>0.4725274725274725</v>
       </c>
       <c r="F90">
-        <v>0.35</v>
+        <v>0.3298969072164948</v>
       </c>
       <c r="G90">
-        <v>0.4896969696969697</v>
+        <v>0.4848116646415553</v>
       </c>
       <c r="H90">
-        <v>0.414</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.5045871559633027</v>
+        <v>0.5377358490566038</v>
       </c>
       <c r="C91">
-        <v>0.5115964872776402</v>
+        <v>0.5117739403453689</v>
       </c>
       <c r="D91">
-        <v>0.3960396039603961</v>
+        <v>0.4942528735632184</v>
       </c>
       <c r="E91">
-        <v>0.4766009852216749</v>
+        <v>0.48</v>
       </c>
       <c r="F91">
-        <v>0.4130434782608696</v>
+        <v>0.3736263736263736</v>
       </c>
       <c r="G91">
-        <v>0.496962332928311</v>
+        <v>0.4969843184559711</v>
       </c>
       <c r="H91">
-        <v>0.414</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.5619834710743802</v>
+        <v>0.5204081632653061</v>
       </c>
       <c r="C92">
-        <v>0.5097250167672703</v>
+        <v>0.5135555555555555</v>
       </c>
       <c r="D92">
-        <v>0.4526315789473684</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="E92">
-        <v>0.472636815920398</v>
+        <v>0.4834355828220859</v>
       </c>
       <c r="F92">
-        <v>0.4105263157894737</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="G92">
-        <v>0.4957160342717258</v>
+        <v>0.4932680538555692</v>
       </c>
       <c r="H92">
-        <v>0.416</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.5495495495495496</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C93">
-        <v>0.5086359610274579</v>
+        <v>0.5134420449537241</v>
       </c>
       <c r="D93">
-        <v>0.5111111111111111</v>
+        <v>0.44</v>
       </c>
       <c r="E93">
-        <v>0.4713763702801462</v>
+        <v>0.4937965260545906</v>
       </c>
       <c r="F93">
-        <v>0.4222222222222222</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="G93">
-        <v>0.4987864077669903</v>
+        <v>0.4944375772558715</v>
       </c>
       <c r="H93">
-        <v>0.404</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,22 +2818,22 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.5263157894736842</v>
+        <v>0.5339805825242718</v>
       </c>
       <c r="C94">
-        <v>0.5089794130530004</v>
+        <v>0.5134838851129139</v>
       </c>
       <c r="D94">
-        <v>0.4125</v>
+        <v>0.4433962264150944</v>
       </c>
       <c r="E94">
-        <v>0.4691656590084644</v>
+        <v>0.4987373737373738</v>
       </c>
       <c r="F94">
-        <v>0.3783783783783784</v>
+        <v>0.4356435643564356</v>
       </c>
       <c r="G94">
-        <v>0.4951807228915663</v>
+        <v>0.4875311720698254</v>
       </c>
       <c r="H94">
         <v>0.406</v>
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.4757281553398058</v>
+        <v>0.5148514851485149</v>
       </c>
       <c r="C95">
-        <v>0.5106753812636166</v>
+        <v>0.5119461337966985</v>
       </c>
       <c r="D95">
-        <v>0.4666666666666667</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="E95">
-        <v>0.4749694749694749</v>
+        <v>0.4924242424242424</v>
       </c>
       <c r="F95">
-        <v>0.3855421686746988</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="G95">
-        <v>0.4993968636911942</v>
+        <v>0.4894409937888199</v>
       </c>
       <c r="H95">
-        <v>0.4</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.5</v>
+        <v>0.4774774774774775</v>
       </c>
       <c r="C96">
-        <v>0.5110919664010338</v>
+        <v>0.5117229511722952</v>
       </c>
       <c r="D96">
-        <v>0.3773584905660378</v>
+        <v>0.4953271028037383</v>
       </c>
       <c r="E96">
-        <v>0.4710947109471095</v>
+        <v>0.4856070087609512</v>
       </c>
       <c r="F96">
-        <v>0.4301075268817204</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G96">
-        <v>0.4896969696969697</v>
+        <v>0.4870530209617756</v>
       </c>
       <c r="H96">
-        <v>0.414</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.512396694214876</v>
+        <v>0.5</v>
       </c>
       <c r="C97">
-        <v>0.5103389469196333</v>
+        <v>0.5132422041862452</v>
       </c>
       <c r="D97">
-        <v>0.4158415841584158</v>
+        <v>0.5046728971962616</v>
       </c>
       <c r="E97">
-        <v>0.4815270935960591</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="F97">
-        <v>0.4367816091954023</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="G97">
-        <v>0.4842615012106538</v>
+        <v>0.4787363304981774</v>
       </c>
       <c r="H97">
-        <v>0.416</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.4907407407407408</v>
+        <v>0.4732142857142857</v>
       </c>
       <c r="C98">
-        <v>0.5088054317844261</v>
+        <v>0.5133079847908745</v>
       </c>
       <c r="D98">
-        <v>0.4</v>
+        <v>0.3763440860215054</v>
       </c>
       <c r="E98">
-        <v>0.4766584766584767</v>
+        <v>0.4914425427872861</v>
       </c>
       <c r="F98">
-        <v>0.3902439024390244</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="G98">
-        <v>0.4885679903730445</v>
+        <v>0.4772182254196642</v>
       </c>
       <c r="H98">
-        <v>0.412</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.4909090909090909</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="C99">
-        <v>0.5080729712728035</v>
+        <v>0.5143395436466401</v>
       </c>
       <c r="D99">
-        <v>0.4526315789473684</v>
+        <v>0.36</v>
       </c>
       <c r="E99">
-        <v>0.4742647058823529</v>
+        <v>0.5048543689320388</v>
       </c>
       <c r="F99">
-        <v>0.4021739130434783</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="G99">
-        <v>0.4891304347826087</v>
+        <v>0.4790419161676647</v>
       </c>
       <c r="H99">
-        <v>0.408</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.4636363636363636</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C100">
-        <v>0.5071710663063812</v>
+        <v>0.5144160962455921</v>
       </c>
       <c r="D100">
-        <v>0.4945054945054945</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="E100">
-        <v>0.4791154791154791</v>
+        <v>0.4975669099756691</v>
       </c>
       <c r="F100">
-        <v>0.4204545454545455</v>
+        <v>0.4111111111111111</v>
       </c>
       <c r="G100">
-        <v>0.4890243902439024</v>
+        <v>0.4841075794621027</v>
       </c>
       <c r="H100">
-        <v>0.412</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.4951456310679612</v>
+        <v>0.5533980582524272</v>
       </c>
       <c r="C101">
-        <v>0.5086526576019778</v>
+        <v>0.5118045575857113</v>
       </c>
       <c r="D101">
-        <v>0.5487804878048781</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="E101">
-        <v>0.4767156862745098</v>
+        <v>0.4873646209386281</v>
       </c>
       <c r="F101">
-        <v>0.3666666666666666</v>
+        <v>0.4455445544554456</v>
       </c>
       <c r="G101">
-        <v>0.4830097087378641</v>
+        <v>0.4873035066505441</v>
       </c>
       <c r="H101">
-        <v>0.408</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
